--- a/REGULAR/OJT/TOLENTINO, IMELDA S..xlsx
+++ b/REGULAR/OJT/TOLENTINO, IMELDA S..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khym Espino\OneDrive\Documents\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="207">
   <si>
     <t>PERIOD</t>
   </si>
@@ -660,12 +660,15 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>7/17-21/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1058,6 +1061,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1093,15 +1105,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1551,7 +1554,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1594,7 +1597,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1661,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1718,7 +1721,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1787,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,7 +1850,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1945,7 +1948,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2007,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2072,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2115,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2190,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2376,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2442,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2500,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2563,7 +2566,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2622,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2697,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2737,7 +2740,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2803,7 +2806,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2859,7 +2862,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2957,7 +2960,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3020,7 +3023,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3469,7 +3472,7 @@
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2520" topLeftCell="A420" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="F429" sqref="F429"/>
+      <selection pane="bottomLeft" activeCell="K435" sqref="K435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3491,62 +3494,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="57"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3572,18 +3575,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3630,7 +3633,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>233.42700000000002</v>
+        <v>230.92700000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3640,7 +3643,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>376.91699999999997</v>
+        <v>379.41699999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7154,7 +7157,7 @@
       <c r="H166" s="39"/>
       <c r="I166" s="9"/>
       <c r="J166" s="11"/>
-      <c r="K166" s="64" t="s">
+      <c r="K166" s="52" t="s">
         <v>139</v>
       </c>
     </row>
@@ -7886,20 +7889,20 @@
       <c r="K199" s="20"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="65" t="s">
+      <c r="A200" s="53" t="s">
         <v>150</v>
       </c>
       <c r="B200" s="15"/>
       <c r="C200" s="13"/>
       <c r="D200" s="43"/>
-      <c r="E200" s="63"/>
+      <c r="E200" s="51"/>
       <c r="F200" s="15"/>
       <c r="G200" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H200" s="43"/>
-      <c r="I200" s="63"/>
+      <c r="I200" s="51"/>
       <c r="J200" s="12"/>
       <c r="K200" s="15"/>
     </row>
@@ -9999,14 +10002,14 @@
         <v>1.25</v>
       </c>
       <c r="D298" s="43"/>
-      <c r="E298" s="63"/>
+      <c r="E298" s="51"/>
       <c r="F298" s="15"/>
       <c r="G298" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H298" s="43"/>
-      <c r="I298" s="63"/>
+      <c r="I298" s="51"/>
       <c r="J298" s="12"/>
       <c r="K298" s="15"/>
     </row>
@@ -10737,14 +10740,14 @@
         <v>1.25</v>
       </c>
       <c r="D332" s="43"/>
-      <c r="E332" s="63"/>
+      <c r="E332" s="51"/>
       <c r="F332" s="15"/>
       <c r="G332" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H332" s="43"/>
-      <c r="I332" s="63"/>
+      <c r="I332" s="51"/>
       <c r="J332" s="12"/>
       <c r="K332" s="15" t="s">
         <v>140</v>
@@ -11715,7 +11718,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
-        <f t="shared" ref="A378:A388" si="26">EDATE(A377,1)</f>
+        <f t="shared" ref="A378:A386" si="26">EDATE(A377,1)</f>
         <v>43160</v>
       </c>
       <c r="B378" s="20"/>
@@ -11744,14 +11747,14 @@
         <v>1.25</v>
       </c>
       <c r="D379" s="43"/>
-      <c r="E379" s="63"/>
+      <c r="E379" s="51"/>
       <c r="F379" s="15"/>
       <c r="G379" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H379" s="43"/>
-      <c r="I379" s="63"/>
+      <c r="I379" s="51"/>
       <c r="J379" s="12"/>
       <c r="K379" s="15"/>
     </row>
@@ -12778,14 +12781,14 @@
       <c r="D427" s="43">
         <v>5</v>
       </c>
-      <c r="E427" s="63"/>
+      <c r="E427" s="51"/>
       <c r="F427" s="15"/>
       <c r="G427" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H427" s="43"/>
-      <c r="I427" s="63"/>
+      <c r="I427" s="51"/>
       <c r="J427" s="12"/>
       <c r="K427" s="15"/>
     </row>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <f t="shared" ref="A431:A440" si="30">EDATE(A430,1)</f>
+        <f t="shared" ref="A431:A432" si="30">EDATE(A430,1)</f>
         <v>44621</v>
       </c>
       <c r="B431" s="20"/>
@@ -12896,43 +12899,65 @@
       <c r="K432" s="20"/>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A433" s="40"/>
+      <c r="A433" s="40">
+        <v>45047</v>
+      </c>
       <c r="B433" s="20"/>
-      <c r="C433" s="13"/>
+      <c r="C433" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D433" s="39"/>
       <c r="E433" s="9"/>
       <c r="F433" s="20"/>
-      <c r="G433" s="13"/>
+      <c r="G433" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H433" s="39"/>
       <c r="I433" s="9"/>
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A434" s="40"/>
+      <c r="A434" s="40">
+        <v>45078</v>
+      </c>
       <c r="B434" s="20"/>
-      <c r="C434" s="13"/>
+      <c r="C434" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D434" s="39"/>
       <c r="E434" s="9"/>
       <c r="F434" s="20"/>
-      <c r="G434" s="13"/>
+      <c r="G434" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H434" s="39"/>
       <c r="I434" s="9"/>
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A435" s="40"/>
-      <c r="B435" s="20"/>
+      <c r="A435" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B435" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C435" s="13"/>
-      <c r="D435" s="39"/>
+      <c r="D435" s="39">
+        <v>5</v>
+      </c>
       <c r="E435" s="9"/>
       <c r="F435" s="20"/>
       <c r="G435" s="13"/>
       <c r="H435" s="39"/>
       <c r="I435" s="9"/>
       <c r="J435" s="11"/>
-      <c r="K435" s="20"/>
+      <c r="K435" s="20" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
@@ -13056,11 +13081,11 @@
       <c r="B445" s="15"/>
       <c r="C445" s="42"/>
       <c r="D445" s="43"/>
-      <c r="E445" s="63"/>
+      <c r="E445" s="51"/>
       <c r="F445" s="15"/>
       <c r="G445" s="42"/>
       <c r="H445" s="43"/>
-      <c r="I445" s="63"/>
+      <c r="I445" s="51"/>
       <c r="J445" s="12"/>
       <c r="K445" s="15"/>
     </row>
@@ -13128,17 +13153,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -13223,12 +13248,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/REGULAR/OJT/TOLENTINO, IMELDA S..xlsx
+++ b/REGULAR/OJT/TOLENTINO, IMELDA S..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1554,7 +1554,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,7 +1597,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1661,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1721,7 +1721,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1787,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1850,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,7 +1948,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2072,7 +2072,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2115,7 +2115,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2190,7 +2190,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,7 +2376,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2442,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2500,7 +2500,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,7 +2566,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2622,7 +2622,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2697,7 +2697,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2740,7 +2740,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2806,7 +2806,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2862,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +2960,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3023,7 +3023,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3470,9 +3470,9 @@
   <dimension ref="A2:K445"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2520" topLeftCell="A420" activePane="bottomLeft"/>
+      <pane ySplit="2520" topLeftCell="A423" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="K435" sqref="K435"/>
+      <selection pane="bottomLeft" activeCell="C436" sqref="C436:G436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3633,7 +3633,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>230.92700000000002</v>
+        <v>232.17700000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3643,7 +3643,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>379.41699999999997</v>
+        <v>380.66699999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12962,11 +12962,16 @@
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
-      <c r="C436" s="13"/>
+      <c r="C436" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D436" s="39"/>
       <c r="E436" s="9"/>
       <c r="F436" s="20"/>
-      <c r="G436" s="13"/>
+      <c r="G436" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H436" s="39"/>
       <c r="I436" s="9"/>
       <c r="J436" s="11"/>
